--- a/bh3/502728735202664990_2021-03-16_18-04-15.xlsx
+++ b/bh3/502728735202664990_2021-03-16_18-04-15.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:12:37</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44283.88376157408</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:46:05</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44275.86533564814</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:19:20</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44275.84675925926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -748,10 +758,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-19 08:12:44</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44274.34217592593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -811,10 +819,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-19 08:10:35</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44274.34068287037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -874,10 +880,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-19 07:59:04</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44274.33268518518</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -941,10 +945,8 @@
           <t>4285194340</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-19 07:34:09</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44274.31538194444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1008,10 +1010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-19 06:31:15</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44274.27170138889</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1079,10 +1079,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-18 23:05:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44273.96233796296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1142,10 +1140,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-18 23:00:44</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44273.95884259259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1205,10 +1201,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-18 22:30:18</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44273.93770833333</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1272,10 +1266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-18 16:30:04</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44273.6875462963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1347,10 +1339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:11:00</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44273.38263888889</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1418,10 +1408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-18 02:40:13</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44273.11126157407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1493,10 +1481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:21</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44272.78774305555</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1565,10 +1551,8 @@
           <t>4278597758</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:49</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44272.76515046296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1632,10 +1616,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-17 17:44:29</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44272.73922453704</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1695,10 +1677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-17 12:34:00</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44272.52361111111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1766,10 +1746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-17 10:17:58</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44272.42914351852</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1837,10 +1815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:11:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44272.29982638889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1912,10 +1888,8 @@
           <t>4276519606</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:46:04</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44272.28199074074</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1979,10 +1953,8 @@
           <t>4274331091</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:37:00</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44272.27569444444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2058,10 +2030,8 @@
           <t>4276463701</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-17 05:16:36</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44272.21986111111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2133,10 +2103,8 @@
           <t>4276392108</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-17 03:03:25</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44272.12737268519</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2204,10 +2172,8 @@
           <t>4276396605</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-17 03:02:16</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44272.12657407407</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2275,10 +2241,8 @@
           <t>4276391219</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-17 03:00:38</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44272.12543981482</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2346,10 +2310,8 @@
           <t>4276387388</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:59:14</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44272.12446759259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2417,10 +2379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:56:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44272.12269675926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2488,10 +2448,8 @@
           <t>4274525079</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:06:01</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44272.04584490741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2567,10 +2525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:58:10</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44272.04039351852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2638,10 +2594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:56:48</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44272.03944444445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2713,10 +2667,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:39:48</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44272.02763888889</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2780,10 +2732,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:36:46</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44272.02553240741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2847,10 +2797,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:26:03</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44272.01809027778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2922,10 +2870,8 @@
           <t>4276055473</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:20:24</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44272.01416666667</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2997,10 +2943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:18:50</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44272.01307870371</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3064,10 +3008,8 @@
           <t>4274894825</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:03:04</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44272.00212962963</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3135,10 +3077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:58:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44271.99901620371</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3206,10 +3146,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:52:34</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44271.99483796296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3277,10 +3215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:51:28</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44271.99407407407</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3352,10 +3288,8 @@
           <t>4275921793</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:51:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44271.99394675926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3415,10 +3349,8 @@
           <t>4275896553</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:45:58</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44271.99025462963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3482,10 +3414,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:39:03</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44271.98545138889</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3549,10 +3479,8 @@
           <t>4274334570</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:05</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44271.98269675926</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3624,10 +3552,8 @@
           <t>4275815326</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:30:15</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44271.97934027778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3699,10 +3625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:26:13</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44271.97653935185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3778,10 +3702,8 @@
           <t>4275714882</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:13:21</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44271.96760416667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3853,10 +3775,8 @@
           <t>4275721365</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:59</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44271.96734953704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3920,10 +3840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44271.96690972222</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3987,10 +3905,8 @@
           <t>4275618977</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:10:27</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44271.96559027778</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4066,10 +3982,8 @@
           <t>4275705985</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:09:53</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44271.96519675926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4137,10 +4051,8 @@
           <t>4275689518</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:08:27</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44271.96420138889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4216,10 +4128,8 @@
           <t>4275692867</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:08:09</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44271.96399305556</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4287,10 +4197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:58</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44271.96386574074</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4366,10 +4274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:14</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44271.96127314815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4433,10 +4339,8 @@
           <t>4274945445</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:01:12</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44271.95916666667</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4500,10 +4404,8 @@
           <t>4275648014</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:59:42</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44271.958125</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4567,10 +4469,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:17</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44271.95575231482</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4634,10 +4534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:55:08</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44271.9549537037</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4705,10 +4603,8 @@
           <t>4275618977</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:35</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44271.95457175926</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4777,10 +4673,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:09</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44271.95427083333</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -4856,10 +4750,8 @@
           <t>4275604908</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:23</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44271.95304398148</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4931,10 +4823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:28</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44271.95240740741</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5010,10 +4900,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:49:53</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44271.95130787037</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5085,10 +4973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:46:56</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44271.94925925926</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5160,10 +5046,8 @@
           <t>4275574712</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:46:49</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44271.94917824074</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5235,10 +5119,8 @@
           <t>4274409214</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:44:13</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44271.94737268519</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5315,10 +5197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:30:25</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44271.93778935185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5382,10 +5262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:30:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44271.9375462963</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5449,10 +5327,8 @@
           <t>4274331091</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:28:58</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44271.93678240741</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5524,10 +5400,8 @@
           <t>4275477124</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:28:02</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44271.93613425926</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5603,10 +5477,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:27:32</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44271.93578703704</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5678,10 +5550,8 @@
           <t>4274894825</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:25:53</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44271.9346412037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5757,10 +5627,8 @@
           <t>4275454018</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:24:44</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44271.9338425926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5828,10 +5696,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:23:19</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44271.9328587963</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5895,10 +5761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:16:13</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44271.92792824074</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -5962,10 +5826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:11:12</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44271.92444444444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6041,10 +5903,8 @@
           <t>4275360379</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:06:13</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44271.9209837963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6108,10 +5968,8 @@
           <t>4275299028</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:55:11</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44271.91332175926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6183,10 +6041,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:49:57</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44271.9096875</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6260,10 +6116,8 @@
           <t>4275267345</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:48:18</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44271.90854166666</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6323,10 +6177,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:42:01</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44271.90417824074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6390,10 +6242,8 @@
           <t>4274894825</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:39:07</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44271.90216435185</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6461,10 +6311,8 @@
           <t>4274894825</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:34:43</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44271.89910879629</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6540,10 +6388,8 @@
           <t>4274894825</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:30:38</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44271.89627314815</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6611,10 +6457,8 @@
           <t>4275181275</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:30:30</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44271.89618055556</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6686,10 +6530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:29:54</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44271.89576388889</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6757,10 +6599,8 @@
           <t>4274525079</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:29:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44271.89575231481</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6824,10 +6664,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:23:25</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44271.89126157408</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6891,10 +6729,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:12:28</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44271.88365740741</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6968,10 +6804,8 @@
           <t>4275074768</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:10:05</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44271.88200231481</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7035,10 +6869,8 @@
           <t>4275067237</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:07:43</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44271.8803587963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7106,10 +6938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:56:40</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44271.87268518518</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7177,10 +7007,8 @@
           <t>4274331091</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:54:26</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44271.87113425926</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7256,10 +7084,8 @@
           <t>4274262246</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:47:32</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44271.86634259259</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7331,10 +7157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:46:28</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44271.86560185185</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -7410,10 +7234,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:44:02</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44271.86391203704</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7477,10 +7299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:43:51</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44271.86378472222</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -7548,10 +7368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:53</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44271.86241898148</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7619,10 +7437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:52</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44271.86240740741</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7686,10 +7502,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:28</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44271.86212962963</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7753,10 +7567,8 @@
           <t>4274945445</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:23</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44271.86207175926</v>
       </c>
       <c r="I103" t="n">
         <v>7</v>
@@ -7824,10 +7636,8 @@
           <t>4274867437</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:17</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44271.86200231482</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7891,10 +7701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:03</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44271.86184027778</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7958,10 +7766,8 @@
           <t>4274657198</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:40:51</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44271.86170138889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8030,10 +7836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:39:29</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44271.86075231482</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8097,10 +7901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:32:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44271.8562037037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8176,10 +7978,8 @@
           <t>4274894825</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:31:37</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44271.85528935185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8255,10 +8055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:30:32</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44271.85453703703</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8322,10 +8120,8 @@
           <t>4274897408</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:30:08</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44271.85425925926</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8389,10 +8185,8 @@
           <t>4274362008</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:26:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44271.85188657408</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8456,10 +8250,8 @@
           <t>4274872049</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:26:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44271.85148148148</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8531,10 +8323,8 @@
           <t>4274525079</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:24:18</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44271.85020833334</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8611,10 +8401,8 @@
           <t>4274867437</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:23:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44271.84972222222</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -8690,10 +8478,8 @@
           <t>4274857026</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:22:49</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44271.84917824074</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8770,10 +8556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:18:22</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44271.84608796296</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -8845,10 +8629,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:18:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44271.84594907407</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8925,10 +8707,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:17:33</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44271.84552083333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9005,10 +8785,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:16:57</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44271.84510416666</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9080,10 +8858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:16:17</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44271.8446412037</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -9151,10 +8927,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:15:43</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44271.84424768519</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9226,10 +9000,8 @@
           <t>4274835153</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:15:32</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44271.84412037037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9305,10 +9077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:13:01</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44271.84237268518</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9376,10 +9146,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:11:58</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44271.84164351852</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9443,10 +9211,8 @@
           <t>4274799935</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:11:35</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44271.84137731481</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9514,10 +9280,8 @@
           <t>4274799536</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:11:19</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44271.84119212963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9585,10 +9349,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:10:44</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44271.84078703704</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9664,10 +9426,8 @@
           <t>4274664828</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:10:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44271.84060185185</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9735,10 +9495,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:09:41</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44271.84005787037</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9812,10 +9570,8 @@
           <t>4274238178</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:09:20</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44271.83981481481</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9879,10 +9635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:07:56</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44271.8388425926</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -9950,10 +9704,8 @@
           <t>4274792739</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:07:25</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44271.83848379629</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10021,10 +9773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:05:20</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44271.83703703704</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -10096,10 +9846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:05:12</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44271.83694444445</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10167,10 +9915,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:03:17</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44271.83561342592</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10234,10 +9980,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:00:46</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44271.83386574074</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10309,10 +10053,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:00:32</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44271.83370370371</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10389,10 +10131,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:00:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44271.83355324074</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10469,10 +10209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:57</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44271.83052083333</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10539,10 +10277,8 @@
           <t>4274370411</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:55</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44271.83049768519</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10610,10 +10346,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:40</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44271.83032407407</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10689,10 +10423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:37</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44271.83028935185</v>
       </c>
       <c r="I143" t="n">
         <v>4</v>
@@ -10760,10 +10492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:14</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44271.83002314815</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10840,10 +10570,8 @@
           <t>4274730824</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:53:05</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44271.82853009259</v>
       </c>
       <c r="I145" t="n">
         <v>5</v>
@@ -10911,10 +10639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:52:06</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44271.82784722222</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -10990,10 +10716,8 @@
           <t>4274331091</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:50:39</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44271.82684027778</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11069,10 +10793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:49:51</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44271.82628472222</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11144,10 +10866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:49:43</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44271.82619212963</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11219,10 +10939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:49:12</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44271.82583333334</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11294,10 +11012,8 @@
           <t>4274692658</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:46:56</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44271.82425925926</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11373,10 +11089,8 @@
           <t>4274692267</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:46:41</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44271.82408564815</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11452,10 +11166,8 @@
           <t>4274700359</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:46:21</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44271.82385416667</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11519,10 +11231,8 @@
           <t>4274672022</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:45:10</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44271.82303240741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11594,10 +11304,8 @@
           <t>4274685166</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:43:00</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44271.82152777778</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11669,10 +11377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:42:57</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44271.82149305556</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11744,10 +11450,8 @@
           <t>4274366453</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:41:59</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44271.82082175926</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11829,10 +11533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:41:53</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44271.82075231482</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11904,10 +11606,8 @@
           <t>4274664828</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:41:49</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44271.82070601852</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11967,10 +11667,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:41:31</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44271.82049768518</v>
       </c>
       <c r="I160" t="n">
         <v>4</v>
@@ -12046,10 +11744,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:40:56</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44271.82009259259</v>
       </c>
       <c r="I161" t="n">
         <v>6</v>
@@ -12125,10 +11821,8 @@
           <t>4274672022</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:40:54</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44271.82006944445</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12188,10 +11882,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:40:22</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44271.81969907408</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12263,10 +11955,8 @@
           <t>4274341625</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:39:45</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44271.81927083333</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12338,10 +12028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:39:18</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44271.81895833334</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12405,10 +12093,8 @@
           <t>4274658470</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:38:35</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44271.81846064814</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12484,10 +12170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:38:12</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44271.81819444444</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12563,10 +12247,8 @@
           <t>4274657198</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:37:45</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44271.81788194444</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12638,10 +12320,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:37:08</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44271.8174537037</v>
       </c>
       <c r="I169" t="n">
         <v>10</v>
@@ -12717,10 +12397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:36:37</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44271.8170949074</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12784,10 +12462,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:35:57</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44271.81663194444</v>
       </c>
       <c r="I171" t="n">
         <v>11</v>
@@ -12859,10 +12535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:35:07</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44271.81605324074</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12934,10 +12608,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:33:49</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44271.81515046296</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13013,10 +12685,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:33:32</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44271.8149537037</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -13088,10 +12758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:32:59</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44271.81457175926</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -13167,10 +12835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:28:55</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44271.81174768518</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13242,10 +12908,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:28:52</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44271.81171296296</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13317,10 +12981,8 @@
           <t>4274600527</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:28:36</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44271.81152777778</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13396,10 +13058,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:27:13</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44271.81056712963</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13471,10 +13131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:26:42</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44271.81020833334</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13550,10 +13208,8 @@
           <t>4274600527</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:25:46</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44271.80956018518</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13629,10 +13285,8 @@
           <t>4274587969</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:24:07</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44271.80841435185</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13708,10 +13362,8 @@
           <t>4274596309</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:24:06</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44271.80840277778</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13779,10 +13431,8 @@
           <t>4274587420</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:23:45</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44271.80815972222</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -13847,10 +13497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:23:40</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44271.80810185185</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13918,10 +13566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:23:15</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44271.8078125</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13989,10 +13635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:21:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44271.80638888889</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14060,10 +13704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:21:07</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44271.80633101852</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14135,10 +13777,8 @@
           <t>4274568029</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:18:46</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44271.80469907408</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14206,10 +13846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:16:50</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44271.80335648148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14277,10 +13915,8 @@
           <t>4274482364</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:13:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44271.80114583333</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14349,10 +13985,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:13:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44271.80081018519</v>
       </c>
       <c r="I192" t="n">
         <v>6</v>
@@ -14424,10 +14058,8 @@
           <t>4274404486</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:10:36</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44271.79902777778</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14503,10 +14135,8 @@
           <t>4274525368</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:09:27</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44271.79822916666</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -14584,10 +14214,8 @@
           <t>4274525079</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:09:16</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44271.79810185185</v>
       </c>
       <c r="I195" t="n">
         <v>7</v>
@@ -14663,10 +14291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:07:49</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44271.79709490741</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14738,10 +14364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:07:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44271.79658564815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14813,10 +14437,8 @@
           <t>4274482364</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:06:00</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44271.79583333333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14886,10 +14508,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:05:05</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44271.79519675926</v>
       </c>
       <c r="I199" t="n">
         <v>26</v>
@@ -14961,10 +14581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:03:47</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44271.79429398148</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15036,10 +14654,8 @@
           <t>4274495248</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:02:49</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44271.79362268518</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15115,10 +14731,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:01:41</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44271.79283564815</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15194,10 +14808,8 @@
           <t>4274482364</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:00:56</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44271.79231481482</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15265,10 +14877,8 @@
           <t>4274370411</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:00:36</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44271.79208333333</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15344,10 +14954,8 @@
           <t>4274481257</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:00:10</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44271.79178240741</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15415,10 +15023,8 @@
           <t>4274404486</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:58:05</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44271.79033564815</v>
       </c>
       <c r="I206" t="n">
         <v>6</v>
@@ -15490,10 +15096,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:57:44</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44271.79009259259</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15557,10 +15161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:57:43</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44271.79008101852</v>
       </c>
       <c r="I208" t="n">
         <v>7</v>
@@ -15636,10 +15238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:57:39</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44271.79003472222</v>
       </c>
       <c r="I209" t="n">
         <v>61</v>
@@ -15703,10 +15303,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:57:35</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44271.78998842592</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15770,10 +15368,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:57:28</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44271.78990740741</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15849,10 +15445,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:57:24</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44271.78986111111</v>
       </c>
       <c r="I212" t="n">
         <v>4</v>
@@ -15924,10 +15518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:56:46</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44271.78942129629</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15991,10 +15583,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:56:29</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44271.78922453704</v>
       </c>
       <c r="I214" t="n">
         <v>13</v>
@@ -16058,10 +15648,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:56:20</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44271.78912037037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16133,10 +15721,8 @@
           <t>4274366453</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:55:03</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44271.78822916667</v>
       </c>
       <c r="I216" t="n">
         <v>5</v>
@@ -16212,10 +15798,8 @@
           <t>4274460402</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:54:18</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44271.78770833334</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16291,10 +15875,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:53:31</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44271.78716435185</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -16366,10 +15948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:51:56</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44271.78606481481</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16434,10 +16014,8 @@
           <t>4274305900</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:51:28</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44271.78574074074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16505,10 +16083,8 @@
           <t>4274426747</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:50:51</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44271.7853125</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16576,10 +16152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:50:46</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44271.78525462963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16643,10 +16217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:50:05</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44271.7847800926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16722,10 +16294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:50:04</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44271.78476851852</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16797,10 +16367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:49:27</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44271.78434027778</v>
       </c>
       <c r="I225" t="n">
         <v>22</v>
@@ -16864,10 +16432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:49:01</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44271.78403935185</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16943,10 +16509,8 @@
           <t>4274427350</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:48:45</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44271.78385416666</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
@@ -17014,10 +16578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:48:33</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44271.78371527778</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17085,10 +16647,8 @@
           <t>4274426747</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:48:23</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44271.78359953704</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17152,10 +16712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:48:00</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44271.78333333333</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17219,10 +16777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:47:59</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44271.78332175926</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17286,10 +16842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:47:43</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44271.78313657407</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17357,10 +16911,8 @@
           <t>4274422006</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:47:42</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44271.783125</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17420,10 +16972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:46:20</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44271.78217592592</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17487,10 +17037,8 @@
           <t>4274359226</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:46:12</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44271.78208333333</v>
       </c>
       <c r="I235" t="n">
         <v>8</v>
@@ -17554,10 +17102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:45:52</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44271.78185185185</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17633,10 +17179,8 @@
           <t>4274340915</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:45:46</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44271.78178240741</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17708,10 +17252,8 @@
           <t>4274407734</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:44:56</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44271.7812037037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17783,10 +17325,8 @@
           <t>4274404486</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:44:06</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44271.780625</v>
       </c>
       <c r="I239" t="n">
         <v>5</v>
@@ -17854,10 +17394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:55</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44271.78049768518</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17925,10 +17463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:39</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44271.7803125</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18004,10 +17540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:36</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44271.78027777778</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18079,10 +17613,8 @@
           <t>4274399113</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:29</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44271.78019675926</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18154,10 +17686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:27</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44271.78017361111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18221,10 +17751,8 @@
           <t>4274366453</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:12</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44271.78</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18288,10 +17816,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:42:34</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44271.77956018518</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18363,10 +17889,8 @@
           <t>4274393651</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:42:19</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44271.77938657408</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18442,10 +17966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:41:31</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44271.77883101852</v>
       </c>
       <c r="I248" t="n">
         <v>7</v>
@@ -18509,10 +18031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:41:07</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44271.77855324074</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -18588,10 +18108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:40:42</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44271.77826388889</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18668,10 +18186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:40:18</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44271.77798611111</v>
       </c>
       <c r="I251" t="n">
         <v>3</v>
@@ -18735,10 +18251,8 @@
           <t>4274383793</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:40:08</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44271.77787037037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18814,10 +18328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:39:28</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44271.7774074074</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18893,10 +18405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:38:55</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44271.77702546296</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18973,10 +18483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:37:27</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44271.77600694444</v>
       </c>
       <c r="I255" t="n">
         <v>8</v>
@@ -19048,10 +18556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:37:19</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44271.77591435185</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19119,10 +18625,8 @@
           <t>4274370411</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:36:58</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44271.77567129629</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19186,10 +18690,8 @@
           <t>4274373303</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:36:56</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44271.77564814815</v>
       </c>
       <c r="I258" t="n">
         <v>4</v>
@@ -19265,10 +18767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:36:42</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44271.77548611111</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19344,10 +18844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:36:18</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44271.77520833333</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19419,10 +18917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:36:09</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44271.77510416666</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19486,10 +18982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:38</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44271.77474537037</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19557,10 +19051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:36</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44271.77472222222</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19632,10 +19124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:30</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44271.77465277778</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19711,10 +19201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:23</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44271.77457175926</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19782,10 +19270,8 @@
           <t>4274366453</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:23</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44271.77457175926</v>
       </c>
       <c r="I266" t="n">
         <v>32</v>
@@ -19861,10 +19347,8 @@
           <t>4274370478</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:05</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44271.77436342592</v>
       </c>
       <c r="I267" t="n">
         <v>21</v>
@@ -19928,10 +19412,8 @@
           <t>4274370411</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:02</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44271.7743287037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19999,10 +19481,8 @@
           <t>4274362008</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:34:39</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44271.7740625</v>
       </c>
       <c r="I269" t="n">
         <v>9</v>
@@ -20074,10 +19554,8 @@
           <t>4274340915</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:34:34</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44271.77400462963</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20145,10 +19623,8 @@
           <t>4274354995</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:34:29</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44271.77394675926</v>
       </c>
       <c r="I271" t="n">
         <v>8</v>
@@ -20217,10 +19693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:34:28</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44271.77393518519</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20292,10 +19766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:34:22</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44271.77386574074</v>
       </c>
       <c r="I273" t="n">
         <v>15</v>
@@ -20367,10 +19839,8 @@
           <t>4274359226</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:34:18</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44271.77381944445</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20442,10 +19912,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:51</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44271.77350694445</v>
       </c>
       <c r="I275" t="n">
         <v>7</v>
@@ -20509,10 +19977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:41</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44271.7733912037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20588,10 +20054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:41</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44271.7733912037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20655,10 +20119,8 @@
           <t>4274340915</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:41</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44271.7733912037</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20730,10 +20192,8 @@
           <t>4274358225</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:38</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44271.77335648148</v>
       </c>
       <c r="I279" t="n">
         <v>8</v>
@@ -20809,10 +20269,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:16</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44271.77310185185</v>
       </c>
       <c r="I280" t="n">
         <v>6</v>
@@ -20888,10 +20346,8 @@
           <t>4274357400</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:06</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44271.77298611111</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20959,10 +20415,8 @@
           <t>4274352757</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:33:05</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44271.77297453704</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21034,10 +20488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:32:50</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44271.77280092592</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21105,10 +20557,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:32:43</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44271.77271990741</v>
       </c>
       <c r="I284" t="n">
         <v>25</v>
@@ -21172,10 +20622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:32:21</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44271.77246527778</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21247,10 +20695,8 @@
           <t>4274355996</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:32:11</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44271.77234953704</v>
       </c>
       <c r="I286" t="n">
         <v>10</v>
@@ -21314,10 +20760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:32:01</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44271.7722337963</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21385,10 +20829,8 @@
           <t>4274347523</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:43</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44271.77202546296</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21453,10 +20895,8 @@
           <t>4274334570</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:38</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44271.77196759259</v>
       </c>
       <c r="I289" t="n">
         <v>5</v>
@@ -21534,10 +20974,8 @@
           <t>4274350301</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:31</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44271.77188657408</v>
       </c>
       <c r="I290" t="n">
         <v>10</v>
@@ -21609,10 +21047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:25</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44271.77181712963</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21688,10 +21124,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:13</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44271.77167824074</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21751,10 +21185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:09</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44271.77163194444</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21822,10 +21254,8 @@
           <t>4274346415</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:02</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44271.77155092593</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21889,10 +21319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:31:02</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44271.77155092593</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21960,10 +21388,8 @@
           <t>4274334570</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:39</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44271.77128472222</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -22031,10 +21457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:35</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44271.77123842593</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22106,10 +21530,8 @@
           <t>4274343312</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:29</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44271.77116898148</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22177,10 +21599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:19</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44271.77105324074</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22240,10 +21660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:17</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44271.77103009259</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22320,10 +21738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44271.77097222222</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22399,10 +21815,8 @@
           <t>4274334570</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:29:49</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44271.77070601852</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -22480,10 +21894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:29:44</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44271.77064814815</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22551,10 +21963,8 @@
           <t>4274341625</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:29:23</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44271.77040509259</v>
       </c>
       <c r="I304" t="n">
         <v>48</v>
@@ -22626,10 +22036,8 @@
           <t>4274333844</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:29:20</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44271.77037037037</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22697,10 +22105,8 @@
           <t>4274340915</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:28:53</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44271.77005787037</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22768,10 +22174,8 @@
           <t>4274332842</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:28:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44271.76989583333</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -22847,10 +22251,8 @@
           <t>4274340362</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:28:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44271.76981481481</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22914,10 +22316,8 @@
           <t>4274335445</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:28:23</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44271.76971064815</v>
       </c>
       <c r="I309" t="n">
         <v>6</v>
@@ -22994,10 +22394,8 @@
           <t>4274257147</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:28:13</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44271.7695949074</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23073,10 +22471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:28:01</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44271.76945601852</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23148,10 +22544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:59</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44271.76943287037</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -23223,10 +22617,8 @@
           <t>4274331816</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:58</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44271.7694212963</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23294,10 +22686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:41</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44271.76922453703</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23362,10 +22752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:32</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44271.76912037037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23433,10 +22821,8 @@
           <t>4274331091</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:28</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44271.76907407407</v>
       </c>
       <c r="I316" t="n">
         <v>56</v>
@@ -23512,10 +22898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:14</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44271.76891203703</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23591,10 +22975,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:13</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44271.76890046296</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23671,10 +23053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:09</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44271.76885416666</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23746,10 +23126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:26:45</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44271.76857638889</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23821,10 +23199,8 @@
           <t>4274327204</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:26:29</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44271.7683912037</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23892,10 +23268,8 @@
           <t>4274326876</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:26:17</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44271.76825231482</v>
       </c>
       <c r="I322" t="n">
         <v>6</v>
@@ -23959,10 +23333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:26:05</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44271.76811342593</v>
       </c>
       <c r="I323" t="n">
         <v>6</v>
@@ -24026,10 +23398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:58</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44271.76803240741</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24101,10 +23471,8 @@
           <t>4274326009</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:43</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44271.76785879629</v>
       </c>
       <c r="I325" t="n">
         <v>30</v>
@@ -24176,10 +23544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:37</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44271.76778935185</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24256,10 +23622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:20</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44271.76759259259</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24335,10 +23699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:11</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44271.76748842592</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24406,10 +23768,8 @@
           <t>4274325078</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:08</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44271.7674537037</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24473,10 +23833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:02</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44271.76738425926</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24544,10 +23902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:02</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44271.76738425926</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24623,10 +23979,8 @@
           <t>4274316952</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:46</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44271.76719907407</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24702,10 +24056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:33</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44271.76704861111</v>
       </c>
       <c r="I333" t="n">
         <v>8</v>
@@ -24777,10 +24129,8 @@
           <t>4274280408</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:32</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44271.76703703704</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24852,10 +24202,8 @@
           <t>4274316506</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:27</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44271.76697916666</v>
       </c>
       <c r="I335" t="n">
         <v>15</v>
@@ -24931,10 +24279,8 @@
           <t>4274316116</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:12</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44271.76680555556</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25002,10 +24348,8 @@
           <t>4274315987</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:08</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44271.76675925926</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25081,10 +24425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:23:56</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44271.76662037037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25144,10 +24486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:23:50</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44271.76655092592</v>
       </c>
       <c r="I339" t="n">
         <v>5</v>
@@ -25223,10 +24563,8 @@
           <t>4274315467</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:23:47</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44271.7665162037</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25294,10 +24632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:23:03</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44271.76600694445</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25365,10 +24701,8 @@
           <t>4274280408</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:22:32</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44271.76564814815</v>
       </c>
       <c r="I342" t="n">
         <v>7</v>
@@ -25437,10 +24771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:22:22</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44271.76553240741</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25512,10 +24844,8 @@
           <t>4274305900</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:22:13</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44271.76542824074</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25591,10 +24921,8 @@
           <t>4274302854</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:22:02</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44271.76530092592</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25670,10 +24998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:22:00</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44271.76527777778</v>
       </c>
       <c r="I346" t="n">
         <v>3</v>
@@ -25745,10 +25071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:41</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44271.76505787037</v>
       </c>
       <c r="I347" t="n">
         <v>5</v>
@@ -25812,10 +25136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:35</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44271.76498842592</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25891,10 +25213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:32</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44271.76495370371</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25966,10 +25286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:20</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44271.76481481481</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26037,10 +25355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:12</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44271.76472222222</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26112,10 +25428,8 @@
           <t>4274301533</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:10</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44271.76469907408</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26187,10 +25501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:01</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44271.76459490741</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26254,10 +25566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:21:01</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44271.76459490741</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26329,10 +25639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:20:55</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44271.76452546296</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26406,10 +25714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:20:52</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44271.76449074074</v>
       </c>
       <c r="I356" t="n">
         <v>6</v>
@@ -26473,10 +25779,8 @@
           <t>4274297602</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:20:09</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44271.76399305555</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26554,10 +25858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:20:01</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44271.76390046296</v>
       </c>
       <c r="I358" t="n">
         <v>20</v>
@@ -26625,10 +25927,8 @@
           <t>4274297183</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:19:51</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44271.76378472222</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26692,10 +25992,8 @@
           <t>4274292156</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:19:43</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44271.76369212963</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26764,10 +26062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:19:38</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44271.76363425926</v>
       </c>
       <c r="I361" t="n">
         <v>115</v>
@@ -26843,10 +26139,8 @@
           <t>4274280408</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:19:26</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44271.76349537037</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26918,10 +26212,8 @@
           <t>4274288481</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:19:06</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44271.76326388889</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26989,10 +26281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:18:59</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44271.76318287037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27064,10 +26354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:18:58</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44271.7631712963</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27143,10 +26431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:18:45</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44271.76302083334</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27210,10 +26496,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:18:41</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44271.76297453704</v>
       </c>
       <c r="I367" t="n">
         <v>6</v>
@@ -27281,10 +26565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:18:19</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44271.7627199074</v>
       </c>
       <c r="I368" t="n">
         <v>20</v>
@@ -27344,10 +26626,8 @@
           <t>4274286753</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:56</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44271.7624537037</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27423,10 +26703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:48</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44271.76236111111</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27502,10 +26780,8 @@
           <t>4274279178</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:47</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44271.76234953704</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27573,10 +26849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:37</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44271.7622337963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27640,10 +26914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:28</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44271.76212962963</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27715,10 +26987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:17</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44271.76200231481</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27790,10 +27060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:16</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44271.76199074074</v>
       </c>
       <c r="I375" t="n">
         <v>3</v>
@@ -27853,10 +27121,8 @@
           <t>4274278407</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:15</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44271.76197916667</v>
       </c>
       <c r="I376" t="n">
         <v>13</v>
@@ -27932,10 +27198,8 @@
           <t>4274280408</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:13</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44271.76195601852</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28007,10 +27271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:53</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44271.76172453703</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28086,10 +27348,8 @@
           <t>4274277831</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:53</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44271.76172453703</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28161,10 +27421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:47</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44271.7616550926</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28236,10 +27494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:45</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44271.76163194444</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28315,10 +27571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:41</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44271.76158564815</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28391,10 +27645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:32</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44271.76148148148</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28466,10 +27718,8 @@
           <t>4274282120</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:26</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44271.76141203703</v>
       </c>
       <c r="I384" t="n">
         <v>23</v>
@@ -28545,10 +27795,8 @@
           <t>4274257147</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:25</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44271.76140046296</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28612,10 +27860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:24</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44271.76138888889</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28679,10 +27925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:18</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44271.76131944444</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28754,10 +27998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:17</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44271.76130787037</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28833,10 +28075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:11</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44271.76123842593</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28912,10 +28152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:59</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44271.76109953703</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28983,10 +28221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:41</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44271.7608912037</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -29062,10 +28298,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:41</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44271.7608912037</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29141,10 +28375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:32</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44271.76078703703</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29212,10 +28444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:30</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44271.76076388889</v>
       </c>
       <c r="I394" t="n">
         <v>19</v>
@@ -29291,10 +28521,8 @@
           <t>4274275474</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:19</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44271.76063657407</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29362,10 +28590,8 @@
           <t>4274280408</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:19</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44271.76063657407</v>
       </c>
       <c r="I396" t="n">
         <v>4</v>
@@ -29437,10 +28663,8 @@
           <t>4274249115</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:19</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44271.76063657407</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29516,10 +28740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:07</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44271.76049768519</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29583,10 +28805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:06</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44271.76048611111</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29650,10 +28870,8 @@
           <t>4274280039</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:04</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44271.76046296296</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29713,10 +28931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:00</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44271.76041666666</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29784,10 +29000,8 @@
           <t>4274269790</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:54</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44271.76034722223</v>
       </c>
       <c r="I402" t="n">
         <v>25</v>
@@ -29863,10 +29077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:45</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44271.76024305556</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29938,10 +29150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:42</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44271.76020833333</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30013,10 +29223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:21</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44271.75996527778</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30092,10 +29300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:20</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44271.7599537037</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30164,10 +29370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:06</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44271.75979166666</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30239,10 +29443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:05</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44271.75978009259</v>
       </c>
       <c r="I408" t="n">
         <v>4</v>
@@ -30318,10 +29520,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:14:02</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44271.75974537037</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30381,10 +29581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:53</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44271.7596412037</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30460,10 +29658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:51</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44271.75961805556</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30527,10 +29723,8 @@
           <t>4274257147</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:37</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44271.75945601852</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30598,10 +29792,8 @@
           <t>4274245083</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:35</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44271.75943287037</v>
       </c>
       <c r="I413" t="n">
         <v>34</v>
@@ -30665,10 +29857,8 @@
           <t>4274248571</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:26</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44271.7593287037</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30740,10 +29930,8 @@
           <t>4274262246</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:11</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44271.75915509259</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30811,10 +29999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:10</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44271.75914351852</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30882,10 +30068,8 @@
           <t>4274262060</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:13:04</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44271.75907407407</v>
       </c>
       <c r="I417" t="n">
         <v>19</v>
@@ -30957,10 +30141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:59</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44271.7590162037</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31036,10 +30218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:56</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44271.75898148148</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31115,10 +30295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:34</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44271.75872685185</v>
       </c>
       <c r="I420" t="n">
         <v>9</v>
@@ -31190,10 +30368,8 @@
           <t>4274258736</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:34</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44271.75872685185</v>
       </c>
       <c r="I421" t="n">
         <v>6</v>
@@ -31265,10 +30441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:31</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44271.75869212963</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31344,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:23</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44271.75859953704</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31423,10 +30595,8 @@
           <t>4274265906</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:19</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44271.75855324074</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31502,10 +30672,8 @@
           <t>4274265837</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:16</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44271.75851851852</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31569,10 +30737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44271.75840277778</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31648,10 +30814,8 @@
           <t>4274260509</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:59</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44271.75832175926</v>
       </c>
       <c r="I427" t="n">
         <v>83</v>
@@ -31723,10 +30887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:57</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44271.75829861111</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31802,10 +30964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:56</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44271.75828703704</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31865,10 +31025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:54</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44271.75826388889</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31942,10 +31100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:52</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44271.75824074074</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32009,10 +31165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:33</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44271.75802083333</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32089,10 +31243,8 @@
           <t>4274257147</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:32</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44271.75800925926</v>
       </c>
       <c r="I433" t="n">
         <v>6</v>
@@ -32168,10 +31320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:31</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44271.75799768518</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32239,10 +31389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:30</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44271.75798611111</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32306,10 +31454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:23</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44271.75790509259</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32385,10 +31531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:23</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44271.75790509259</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32460,10 +31604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:20</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44271.75787037037</v>
       </c>
       <c r="I438" t="n">
         <v>282</v>
@@ -32532,10 +31674,8 @@
           <t>4274238178</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:13</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44271.75778935185</v>
       </c>
       <c r="I439" t="n">
         <v>2</v>
@@ -32611,10 +31751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:11</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44271.7577662037</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32682,10 +31820,8 @@
           <t>4274249115</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:05</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44271.75769675926</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32757,10 +31893,8 @@
           <t>4274248571</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:43</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44271.75744212963</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32837,10 +31971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:35</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44271.75734953704</v>
       </c>
       <c r="I443" t="n">
         <v>4</v>
@@ -32904,10 +32036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:33</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44271.75732638889</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32967,10 +32097,8 @@
           <t>4274255633</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:30</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44271.75729166667</v>
       </c>
       <c r="I445" t="n">
         <v>53</v>
@@ -33044,10 +32172,8 @@
           <t>4274253195</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:28</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44271.75726851852</v>
       </c>
       <c r="I446" t="n">
         <v>46</v>
@@ -33123,10 +32249,8 @@
           <t>4274253181</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:27</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44271.75725694445</v>
       </c>
       <c r="I447" t="n">
         <v>3</v>
@@ -33190,10 +32314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:16</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44271.75712962963</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33269,10 +32391,8 @@
           <t>4274245083</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:14</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44271.75710648148</v>
       </c>
       <c r="I449" t="n">
         <v>2</v>
@@ -33344,10 +32464,8 @@
           <t>4274247692</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:06</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44271.75701388889</v>
       </c>
       <c r="I450" t="n">
         <v>36</v>
@@ -33411,10 +32529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:04</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44271.75699074074</v>
       </c>
       <c r="I451" t="n">
         <v>66</v>
@@ -33486,10 +32602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:10:03</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44271.75697916667</v>
       </c>
       <c r="I452" t="n">
         <v>15</v>
@@ -33565,10 +32679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:56</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44271.75689814815</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33644,10 +32756,8 @@
           <t>4274233595</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:50</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44271.75682870371</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33719,10 +32829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:48</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44271.75680555555</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33786,10 +32894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:48</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44271.75680555555</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33865,10 +32971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:30</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44271.75659722222</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33932,10 +33036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:28</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44271.75657407408</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33995,10 +33097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:27</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44271.7565625</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34062,10 +33162,8 @@
           <t>4274246596</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:23</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44271.75651620371</v>
       </c>
       <c r="I460" t="n">
         <v>10</v>
@@ -34129,10 +33227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:16</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44271.75643518518</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34204,10 +33300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:16</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44271.75643518518</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34273,10 +33367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:15</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44271.75642361111</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34336,10 +33428,8 @@
           <t>4274246265</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:09</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44271.75635416667</v>
       </c>
       <c r="I464" t="n">
         <v>36</v>
@@ -34411,10 +33501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:06</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44271.75631944444</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34482,10 +33570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:53</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44271.75616898148</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34557,10 +33643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:46</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44271.75608796296</v>
       </c>
       <c r="I467" t="n">
         <v>12</v>
@@ -34624,10 +33708,8 @@
           <t>4274245510</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:39</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44271.75600694444</v>
       </c>
       <c r="I468" t="n">
         <v>11</v>
@@ -34695,10 +33777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:37</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44271.7559837963</v>
       </c>
       <c r="I469" t="n">
         <v>452</v>
@@ -34766,10 +33846,8 @@
           <t>4274245083</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:23</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44271.75582175926</v>
       </c>
       <c r="I470" t="n">
         <v>10</v>
@@ -34833,10 +33911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:17</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44271.75575231481</v>
       </c>
       <c r="I471" t="n">
         <v>216</v>
@@ -34904,10 +33980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:07</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44271.75563657407</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34979,10 +34053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:06</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44271.755625</v>
       </c>
       <c r="I473" t="n">
         <v>65</v>
@@ -35050,10 +34122,8 @@
           <t>4274241982</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:08:02</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44271.75557870371</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35125,10 +34195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:58</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44271.75553240741</v>
       </c>
       <c r="I475" t="n">
         <v>140</v>
@@ -35192,10 +34260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:56</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44271.75550925926</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35259,10 +34325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:56</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44271.75550925926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35326,10 +34390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:49</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44271.75542824074</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35405,10 +34467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:49</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44271.75542824074</v>
       </c>
       <c r="I479" t="n">
         <v>22</v>
@@ -35476,10 +34536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:47</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44271.75540509259</v>
       </c>
       <c r="I480" t="n">
         <v>29</v>
@@ -35543,10 +34601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:45</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44271.75538194444</v>
       </c>
       <c r="I481" t="n">
         <v>118</v>
@@ -35622,10 +34678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:44</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44271.75537037037</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35697,10 +34751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:42</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44271.75534722222</v>
       </c>
       <c r="I483" t="n">
         <v>117</v>
@@ -35768,10 +34820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:37</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44271.75528935185</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35843,10 +34893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:24</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44271.75513888889</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35910,10 +34958,8 @@
           <t>4274233595</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:23</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44271.75512731481</v>
       </c>
       <c r="I486" t="n">
         <v>7</v>
@@ -35978,10 +35024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:22</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44271.75511574074</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36050,10 +35094,8 @@
           <t>4274238178</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:07</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44271.75494212963</v>
       </c>
       <c r="I488" t="n">
         <v>14</v>
@@ -36125,10 +35167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:05</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44271.75491898148</v>
       </c>
       <c r="I489" t="n">
         <v>16</v>
@@ -36192,10 +35232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:55</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44271.75480324074</v>
       </c>
       <c r="I490" t="n">
         <v>52</v>
@@ -36271,10 +35309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:50</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44271.75474537037</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36350,10 +35386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:49</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44271.7547337963</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36429,10 +35463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:47</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44271.75471064815</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36504,10 +35536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:41</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44271.7546412037</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36579,10 +35609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:35</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44271.75457175926</v>
       </c>
       <c r="I495" t="n">
         <v>4</v>
@@ -36654,10 +35682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:35</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44271.75457175926</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36733,10 +35759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:17</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44271.75436342593</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36804,10 +35828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:09</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44271.75427083333</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36883,10 +35905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:08</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44271.75425925926</v>
       </c>
       <c r="I499" t="n">
         <v>6</v>
@@ -36954,10 +35974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:03</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44271.75420138889</v>
       </c>
       <c r="I500" t="n">
         <v>6</v>
@@ -37021,10 +36039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:02</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44271.75418981481</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37100,10 +36116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:01</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44271.75417824074</v>
       </c>
       <c r="I502" t="n">
         <v>9</v>
@@ -37179,10 +36193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:56</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44271.75412037037</v>
       </c>
       <c r="I503" t="n">
         <v>93</v>
@@ -37254,10 +36266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:45</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44271.75399305556</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37332,10 +36342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:42</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44271.75395833333</v>
       </c>
       <c r="I505" t="n">
         <v>6</v>
@@ -37411,10 +36419,8 @@
           <t>4274235653</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:30</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44271.75381944444</v>
       </c>
       <c r="I506" t="n">
         <v>8</v>
@@ -37483,10 +36489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:29</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44271.75380787037</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37554,10 +36558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:27</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44271.75378472222</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37629,10 +36631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:24</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44271.75375</v>
       </c>
       <c r="I509" t="n">
         <v>1616</v>
@@ -37700,10 +36700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44271.75363425926</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37779,10 +36777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:12</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44271.75361111111</v>
       </c>
       <c r="I511" t="n">
         <v>31</v>
@@ -37858,10 +36854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:11</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44271.75359953703</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37937,10 +36931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:10</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44271.75358796296</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -38012,10 +37004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:04:52</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44271.75337962963</v>
       </c>
       <c r="I514" t="n">
         <v>700</v>
@@ -38083,10 +37073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:04:45</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44271.75329861111</v>
       </c>
       <c r="I515" t="n">
         <v>5</v>
@@ -38162,10 +37150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:04:42</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44271.75326388889</v>
       </c>
       <c r="I516" t="n">
         <v>4</v>
